--- a/analyses/tables/foliar_isotope.xlsx
+++ b/analyses/tables/foliar_isotope.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FCFCACE0-C8FC-124B-BC64-C6580DA496C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB08931-BF5D-654D-99B0-403FDF982CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="4620" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="10520" yWindow="2060" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_isotope" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>Residuals</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -37,26 +34,26 @@
     <t>Elevation*Fire</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>d13C</t>
   </si>
   <si>
     <t>d15N</t>
   </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,13 +188,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -495,21 +485,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -557,8 +532,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,121 +888,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>4</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>14.194591045467099</v>
+        <v>5.7372401710480503</v>
       </c>
       <c r="D3" s="2">
-        <v>4.2854442916259299E-4</v>
+        <v>1.6608869848246399E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.33367183893307401</v>
+        <v>1.4661368453070101</v>
       </c>
       <c r="F3" s="2">
-        <v>0.56604661621857499</v>
+        <v>0.22595620297091501</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.306676087168192</v>
+        <v>2.1426907355585199E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.58214707047783498</v>
+        <v>0.88362194622861201</v>
       </c>
       <c r="E4" s="2">
-        <v>3.3452859649333302</v>
+        <v>1.5049376905159499E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>7.3247498421417007E-2</v>
+        <v>0.90236374720835699</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1.11972502014192</v>
+        <v>0.376889869665604</v>
       </c>
       <c r="D5" s="2">
-        <v>0.29496405219673399</v>
+        <v>0.53927244345404801</v>
       </c>
       <c r="E5" s="2">
-        <v>1.15341842682094</v>
+        <v>1.6416222620773999</v>
       </c>
       <c r="F5" s="2">
-        <v>0.28788989994455699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>0.200103032572333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
